--- a/Code/Results/Cases/Case_9_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.121992930831993</v>
+        <v>2.905969427132447</v>
       </c>
       <c r="C2">
-        <v>0.8251363066189867</v>
+        <v>0.9190458017121159</v>
       </c>
       <c r="D2">
-        <v>0.122083331223692</v>
+        <v>0.1379253044437263</v>
       </c>
       <c r="E2">
-        <v>0.1702841756057509</v>
+        <v>0.1755648595205272</v>
       </c>
       <c r="F2">
-        <v>1.557647844683487</v>
+        <v>1.410612540743131</v>
       </c>
       <c r="G2">
-        <v>1.18463994170115</v>
+        <v>1.012444647302615</v>
       </c>
       <c r="H2">
-        <v>0.0002422163681004008</v>
+        <v>0.0002468407161224651</v>
       </c>
       <c r="I2">
-        <v>0.0006371605139636749</v>
+        <v>0.0008554635013071632</v>
       </c>
       <c r="J2">
-        <v>0.7375736493878122</v>
+        <v>0.7030800671299602</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2509648063667385</v>
+        <v>0.2374586610538643</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1376475450871908</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2474297923613875</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7500620154560984</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7512353917118482</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.718180339650928</v>
+        <v>2.539562562937761</v>
       </c>
       <c r="C3">
-        <v>0.7175363794250984</v>
+        <v>0.7945895237481295</v>
       </c>
       <c r="D3">
-        <v>0.1084225228855757</v>
+        <v>0.1221505200031601</v>
       </c>
       <c r="E3">
-        <v>0.1507365619024945</v>
+        <v>0.1556757396628328</v>
       </c>
       <c r="F3">
-        <v>1.426827414547731</v>
+        <v>1.300863382269313</v>
       </c>
       <c r="G3">
-        <v>1.078421061432067</v>
+        <v>0.9291388078348461</v>
       </c>
       <c r="H3">
-        <v>1.247004084170555E-05</v>
+        <v>3.984256855549262E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004348901421455942</v>
+        <v>0.0005094166569441505</v>
       </c>
       <c r="J3">
-        <v>0.6920815004043703</v>
+        <v>0.6633680312091457</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2217830110065364</v>
+        <v>0.23778098926757</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1256786209736411</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2194828842111605</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7803082828878338</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7731889966228742</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.469903843493</v>
+        <v>2.313595993314209</v>
       </c>
       <c r="C4">
-        <v>0.6519920738150802</v>
+        <v>0.7188712413632459</v>
       </c>
       <c r="D4">
-        <v>0.1000957754039362</v>
+        <v>0.1125512456883371</v>
       </c>
       <c r="E4">
-        <v>0.1387744002515063</v>
+        <v>0.1434991878351184</v>
       </c>
       <c r="F4">
-        <v>1.347275892190723</v>
+        <v>1.233876428736309</v>
       </c>
       <c r="G4">
-        <v>1.013891558570307</v>
+        <v>0.8785341260677484</v>
       </c>
       <c r="H4">
-        <v>0.000245028312022999</v>
+        <v>0.0001755827562961443</v>
       </c>
       <c r="I4">
-        <v>0.0006750662430139442</v>
+        <v>0.000573654769354448</v>
       </c>
       <c r="J4">
-        <v>0.6645787731205672</v>
+        <v>0.6389573984341155</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2038957054221129</v>
+        <v>0.2378267267455172</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1190812996548836</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2023242615604417</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7994911686880641</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7873976219473526</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.366714938262533</v>
+        <v>2.219491835634301</v>
       </c>
       <c r="C5">
-        <v>0.6262362697069364</v>
+        <v>0.6890233398218015</v>
       </c>
       <c r="D5">
-        <v>0.09683857635086213</v>
+        <v>0.1087835928192433</v>
       </c>
       <c r="E5">
-        <v>0.1339423216306379</v>
+        <v>0.1385782867911409</v>
       </c>
       <c r="F5">
-        <v>1.31376858735608</v>
+        <v>1.205518155928431</v>
       </c>
       <c r="G5">
-        <v>0.9864626261118588</v>
+        <v>0.8568916428023812</v>
       </c>
       <c r="H5">
-        <v>0.0004292932618170653</v>
+        <v>0.000322436973209772</v>
       </c>
       <c r="I5">
-        <v>0.0009281767876405667</v>
+        <v>0.000746252098914546</v>
       </c>
       <c r="J5">
-        <v>0.6528187250484194</v>
+        <v>0.6283996145197506</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1965682779875522</v>
+        <v>0.2374906712575999</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1163672299103098</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1952899872672162</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8074955340602425</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7935281866943455</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.347242346794246</v>
+        <v>2.201699720682768</v>
       </c>
       <c r="C6">
-        <v>0.6229931236915718</v>
+        <v>0.6851153613278598</v>
       </c>
       <c r="D6">
-        <v>0.09644864749374449</v>
+        <v>0.1083113311803103</v>
       </c>
       <c r="E6">
-        <v>0.1331837533259552</v>
+        <v>0.1378040524150208</v>
       </c>
       <c r="F6">
-        <v>1.306673509530285</v>
+        <v>1.199415870633288</v>
       </c>
       <c r="G6">
-        <v>0.9803468727764084</v>
+        <v>0.8519132945383205</v>
       </c>
       <c r="H6">
-        <v>0.0004663909958955159</v>
+        <v>0.000352314612465765</v>
       </c>
       <c r="I6">
-        <v>0.001067473583352907</v>
+        <v>0.000886753825001918</v>
       </c>
       <c r="J6">
-        <v>0.6500764537874204</v>
+        <v>0.6259133445697245</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1953011403077056</v>
+        <v>0.2370473410636116</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1156697442085708</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1940744941480119</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8088846844630506</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.794759657910955</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.462120790073186</v>
+        <v>2.303864523578454</v>
       </c>
       <c r="C7">
-        <v>0.6544558646127712</v>
+        <v>0.7199666370861166</v>
       </c>
       <c r="D7">
-        <v>0.1004626088211538</v>
+        <v>0.1131888013105282</v>
       </c>
       <c r="E7">
-        <v>0.1388281480825988</v>
+        <v>0.1436230855998879</v>
       </c>
       <c r="F7">
-        <v>1.342608328483678</v>
+        <v>1.227184504940951</v>
       </c>
       <c r="G7">
-        <v>1.009225603080253</v>
+        <v>0.8784783232693769</v>
       </c>
       <c r="H7">
-        <v>0.000249647338506076</v>
+        <v>0.0001805940862493749</v>
       </c>
       <c r="I7">
-        <v>0.0009125377527565703</v>
+        <v>0.0008523119793961698</v>
       </c>
       <c r="J7">
-        <v>0.6622457026761595</v>
+        <v>0.6286722737002037</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2036585042089598</v>
+        <v>0.2363448782869568</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1180104143536802</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2020120472721771</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7997559132253631</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.788333601217829</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.974244890182945</v>
+        <v>2.763332826835722</v>
       </c>
       <c r="C8">
-        <v>0.7916716251405376</v>
+        <v>0.8752455410999573</v>
       </c>
       <c r="D8">
-        <v>0.117906819398911</v>
+        <v>0.1339402923405828</v>
       </c>
       <c r="E8">
-        <v>0.1636926418623403</v>
+        <v>0.1691030817408254</v>
       </c>
       <c r="F8">
-        <v>1.506761718174232</v>
+        <v>1.359345069232816</v>
       </c>
       <c r="G8">
-        <v>1.142143564064142</v>
+        <v>0.9921004403733207</v>
       </c>
       <c r="H8">
-        <v>8.028839645657371E-05</v>
+        <v>8.885158110549796E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007591404548348279</v>
+        <v>0.0009959137031865239</v>
       </c>
       <c r="J8">
-        <v>0.7189070095485874</v>
+        <v>0.6598883549040977</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2407082474429387</v>
+        <v>0.2349474469690449</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1312169799216214</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2373245661295087</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7606525176056778</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7605970073616994</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.988795536720829</v>
+        <v>3.677243961247143</v>
       </c>
       <c r="C9">
-        <v>1.060552826936998</v>
+        <v>1.185751925975012</v>
       </c>
       <c r="D9">
-        <v>0.1519464825702812</v>
+        <v>0.1736609452042757</v>
       </c>
       <c r="E9">
-        <v>0.2126978089427141</v>
+        <v>0.2189907107219327</v>
       </c>
       <c r="F9">
-        <v>1.843556031106999</v>
+        <v>1.638407610653417</v>
       </c>
       <c r="G9">
-        <v>1.41709620622774</v>
+        <v>1.212294842264924</v>
       </c>
       <c r="H9">
-        <v>0.00298045386479262</v>
+        <v>0.002665459611190357</v>
       </c>
       <c r="I9">
-        <v>0.003293279939088123</v>
+        <v>0.003261432223003347</v>
       </c>
       <c r="J9">
-        <v>0.8378350379324218</v>
+        <v>0.7537646118563543</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3140774271969633</v>
+        <v>0.2343373445660184</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1658136664404459</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3073076978795655</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6886637565826419</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7099984728413844</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.707697355520338</v>
+        <v>4.30688524839826</v>
       </c>
       <c r="C10">
-        <v>1.254791383876409</v>
+        <v>1.401150446948293</v>
       </c>
       <c r="D10">
-        <v>0.173183984888567</v>
+        <v>0.2002800864261616</v>
       </c>
       <c r="E10">
-        <v>0.2397941011547644</v>
+        <v>0.2468960065097576</v>
       </c>
       <c r="F10">
-        <v>2.064517221952528</v>
+        <v>1.804221902534451</v>
       </c>
       <c r="G10">
-        <v>1.600198841263875</v>
+        <v>1.382590971274141</v>
       </c>
       <c r="H10">
-        <v>0.007350918265797368</v>
+        <v>0.00643080935772522</v>
       </c>
       <c r="I10">
-        <v>0.0074858260403321</v>
+        <v>0.006672181123719589</v>
       </c>
       <c r="J10">
-        <v>0.9161836620522479</v>
+        <v>0.76691207774482</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3523540979265931</v>
+        <v>0.2282352672937549</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1897171394431751</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3426384499549897</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6413331428240561</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6833503078696381</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.81075139147606</v>
+        <v>4.380061489711125</v>
       </c>
       <c r="C11">
-        <v>1.271719925202774</v>
+        <v>1.396529199714905</v>
       </c>
       <c r="D11">
-        <v>0.1466375243927303</v>
+        <v>0.1736832696718125</v>
       </c>
       <c r="E11">
-        <v>0.1774897330515408</v>
+        <v>0.1836273482185611</v>
       </c>
       <c r="F11">
-        <v>1.899059184379155</v>
+        <v>1.626429166324428</v>
       </c>
       <c r="G11">
-        <v>1.48666062834792</v>
+        <v>1.335228193498864</v>
       </c>
       <c r="H11">
-        <v>0.02594576734048104</v>
+        <v>0.02487213694788792</v>
       </c>
       <c r="I11">
-        <v>0.009182092425986887</v>
+        <v>0.008126385852203377</v>
       </c>
       <c r="J11">
-        <v>0.8542657654081438</v>
+        <v>0.6256548552770766</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2445281085486855</v>
+        <v>0.2003186052167756</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1718483143436274</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2353554690276098</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6443923506901008</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7167078816356636</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.753415463432191</v>
+        <v>4.325874286741623</v>
       </c>
       <c r="C12">
-        <v>1.239680548565843</v>
+        <v>1.347157889090738</v>
       </c>
       <c r="D12">
-        <v>0.1215236350578692</v>
+        <v>0.146145631782673</v>
       </c>
       <c r="E12">
-        <v>0.1288047272074735</v>
+        <v>0.1335914089012498</v>
       </c>
       <c r="F12">
-        <v>1.724511033200855</v>
+        <v>1.462454580449744</v>
       </c>
       <c r="G12">
-        <v>1.361883172561789</v>
+        <v>1.250443237343546</v>
       </c>
       <c r="H12">
-        <v>0.0640259046213032</v>
+        <v>0.06297824283043951</v>
       </c>
       <c r="I12">
-        <v>0.009241343170055316</v>
+        <v>0.008139591185027939</v>
       </c>
       <c r="J12">
-        <v>0.7900545729561088</v>
+        <v>0.5412226688131057</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1662666651975044</v>
+        <v>0.1818129103067783</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1548252825053069</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1585362301977113</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6639405220108685</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7548172177171608</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.559631944835871</v>
+        <v>4.16824437247692</v>
       </c>
       <c r="C13">
-        <v>1.172916402365786</v>
+        <v>1.268672165194232</v>
       </c>
       <c r="D13">
-        <v>0.09686585833576089</v>
+        <v>0.1169537922669264</v>
       </c>
       <c r="E13">
-        <v>0.08823400871258258</v>
+        <v>0.09136380320488868</v>
       </c>
       <c r="F13">
-        <v>1.527128494996376</v>
+        <v>1.297969995688447</v>
       </c>
       <c r="G13">
-        <v>1.214964426511813</v>
+        <v>1.117768315293972</v>
       </c>
       <c r="H13">
-        <v>0.1186621046422687</v>
+        <v>0.1177869590049312</v>
       </c>
       <c r="I13">
-        <v>0.00832316801142241</v>
+        <v>0.007433678681280753</v>
       </c>
       <c r="J13">
-        <v>0.7171298005708309</v>
+        <v>0.4996314099225287</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1063842981516636</v>
+        <v>0.1679488512995526</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1370679834474906</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1007294199739661</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6966305147674916</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7949881026404881</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.361466246888028</v>
+        <v>4.009482897341684</v>
       </c>
       <c r="C14">
-        <v>1.11179952185222</v>
+        <v>1.201557626166618</v>
       </c>
       <c r="D14">
-        <v>0.08039353623025391</v>
+        <v>0.09670065219082602</v>
       </c>
       <c r="E14">
-        <v>0.06509371104504424</v>
+        <v>0.06706837612683181</v>
       </c>
       <c r="F14">
-        <v>1.37980695509961</v>
+        <v>1.181982951856455</v>
       </c>
       <c r="G14">
-        <v>1.102567655632242</v>
+        <v>1.005644656058038</v>
       </c>
       <c r="H14">
-        <v>0.1670787566849725</v>
+        <v>0.1663704660470273</v>
       </c>
       <c r="I14">
-        <v>0.007377891056551178</v>
+        <v>0.006744862625916781</v>
       </c>
       <c r="J14">
-        <v>0.6622966494021227</v>
+        <v>0.4859566478588135</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.0758769845226297</v>
+        <v>0.1598629683030381</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1242693942202671</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07177555200472341</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7263023628682177</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8240116012962062</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.282370813410068</v>
+        <v>3.94635373882511</v>
       </c>
       <c r="C15">
-        <v>1.090801479224808</v>
+        <v>1.179899312708358</v>
       </c>
       <c r="D15">
-        <v>0.07630468415705849</v>
+        <v>0.09141715882825707</v>
       </c>
       <c r="E15">
-        <v>0.05999000785672592</v>
+        <v>0.06168244283325564</v>
       </c>
       <c r="F15">
-        <v>1.337429582774149</v>
+        <v>1.151076808170302</v>
       </c>
       <c r="G15">
-        <v>1.068968747322629</v>
+        <v>0.9685160224318565</v>
       </c>
       <c r="H15">
-        <v>0.1792138902048777</v>
+        <v>0.1785738005330586</v>
       </c>
       <c r="I15">
-        <v>0.007063519984077615</v>
+        <v>0.006559954681470082</v>
       </c>
       <c r="J15">
-        <v>0.6463501137528596</v>
+        <v>0.4884511971972927</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.06975086380137085</v>
+        <v>0.158313840720627</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1206290612362935</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06609876121279434</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7357580355715925</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8310361960057975</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.013555231461567</v>
+        <v>3.731272862274579</v>
       </c>
       <c r="C16">
-        <v>1.024135605800126</v>
+        <v>1.118754085145497</v>
       </c>
       <c r="D16">
-        <v>0.07313857124207601</v>
+        <v>0.08559550751230915</v>
       </c>
       <c r="E16">
-        <v>0.05809917465112058</v>
+        <v>0.0596721514499432</v>
       </c>
       <c r="F16">
-        <v>1.284785889234783</v>
+        <v>1.131436624364852</v>
       </c>
       <c r="G16">
-        <v>1.02071296839263</v>
+        <v>0.8909152918532612</v>
       </c>
       <c r="H16">
-        <v>0.1649014837748695</v>
+        <v>0.164518977355641</v>
       </c>
       <c r="I16">
-        <v>0.005498431875502696</v>
+        <v>0.005408046377475273</v>
       </c>
       <c r="J16">
-        <v>0.6275048667966985</v>
+        <v>0.5425863015600356</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.06778050789232282</v>
+        <v>0.1639944979572867</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1172473317621758</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06495732093738482</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7465620806754245</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.822336441296116</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.911934081411061</v>
+        <v>3.646179324432694</v>
       </c>
       <c r="C17">
-        <v>1.005405547959299</v>
+        <v>1.10552192691506</v>
       </c>
       <c r="D17">
-        <v>0.07913604173874234</v>
+        <v>0.09154528439957943</v>
       </c>
       <c r="E17">
-        <v>0.06781706606716575</v>
+        <v>0.06980963508356552</v>
       </c>
       <c r="F17">
-        <v>1.321203625811833</v>
+        <v>1.174959950433703</v>
       </c>
       <c r="G17">
-        <v>1.042423940604678</v>
+        <v>0.8943803110083195</v>
       </c>
       <c r="H17">
-        <v>0.1264142994291433</v>
+        <v>0.1261305535739723</v>
       </c>
       <c r="I17">
-        <v>0.004839951137635801</v>
+        <v>0.004916312125282651</v>
       </c>
       <c r="J17">
-        <v>0.6417692501800474</v>
+        <v>0.5856600173906372</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08021286314358278</v>
+        <v>0.1727015574122603</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1208286192745263</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07733316874233864</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.739111559689519</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8029890123130201</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.946920366914526</v>
+        <v>3.673519765010212</v>
       </c>
       <c r="C18">
-        <v>1.023322886998955</v>
+        <v>1.132654806666267</v>
       </c>
       <c r="D18">
-        <v>0.09474623779385638</v>
+        <v>0.1089227943587758</v>
       </c>
       <c r="E18">
-        <v>0.09350845184452794</v>
+        <v>0.09638808023346357</v>
       </c>
       <c r="F18">
-        <v>1.444614997485246</v>
+        <v>1.28823037101489</v>
       </c>
       <c r="G18">
-        <v>1.131809620020903</v>
+        <v>0.9631900088491676</v>
       </c>
       <c r="H18">
-        <v>0.07356273578379557</v>
+        <v>0.07328798240485668</v>
       </c>
       <c r="I18">
-        <v>0.004502256724628673</v>
+        <v>0.004561610335820809</v>
       </c>
       <c r="J18">
-        <v>0.6885285386924522</v>
+        <v>0.63893000123592</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1167340775198795</v>
+        <v>0.1867107098185095</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1322194599783515</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1130766707359783</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7174626840055964</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7716038741566535</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.077545981449305</v>
+        <v>3.780795383192185</v>
       </c>
       <c r="C19">
-        <v>1.075132216988095</v>
+        <v>1.19747442740902</v>
       </c>
       <c r="D19">
-        <v>0.1196212843231734</v>
+        <v>0.1369584476450854</v>
       </c>
       <c r="E19">
-        <v>0.1379289804894022</v>
+        <v>0.1420769451720645</v>
       </c>
       <c r="F19">
-        <v>1.628821839313616</v>
+        <v>1.450683477527988</v>
       </c>
       <c r="G19">
-        <v>1.26634665383483</v>
+        <v>1.07357439342087</v>
       </c>
       <c r="H19">
-        <v>0.02901749951028165</v>
+        <v>0.02867474083912214</v>
       </c>
       <c r="I19">
-        <v>0.004933866280201649</v>
+        <v>0.004954640303571622</v>
       </c>
       <c r="J19">
-        <v>0.7563706124334715</v>
+        <v>0.7002603359550506</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1855005945279018</v>
+        <v>0.203500971571323</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1485930677003289</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1804399593352741</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6929924280387603</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7384682914868961</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.497096764979176</v>
+        <v>4.131678953059691</v>
       </c>
       <c r="C20">
-        <v>1.212153599173234</v>
+        <v>1.35809117557119</v>
       </c>
       <c r="D20">
-        <v>0.1686939400742062</v>
+        <v>0.1933669642929203</v>
       </c>
       <c r="E20">
-        <v>0.2326271001620341</v>
+        <v>0.239234909326548</v>
       </c>
       <c r="F20">
-        <v>1.99150183270163</v>
+        <v>1.75648208336726</v>
       </c>
       <c r="G20">
-        <v>1.537214841567135</v>
+        <v>1.309823372317936</v>
       </c>
       <c r="H20">
-        <v>0.005978071591943301</v>
+        <v>0.005275070734567677</v>
       </c>
       <c r="I20">
-        <v>0.006861702270217762</v>
+        <v>0.006500445722343429</v>
       </c>
       <c r="J20">
-        <v>0.8881062845676979</v>
+        <v>0.7854170143813803</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3411444198733449</v>
+        <v>0.2284565081923589</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1817290155314737</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3325857333922215</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6547701117281939</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6914866211026691</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.091589876515513</v>
+        <v>4.598131793916195</v>
       </c>
       <c r="C21">
-        <v>1.37459012642654</v>
+        <v>1.51280660651787</v>
       </c>
       <c r="D21">
-        <v>0.1918130387336561</v>
+        <v>0.227152773810019</v>
       </c>
       <c r="E21">
-        <v>0.2681845385355146</v>
+        <v>0.2772502699486878</v>
       </c>
       <c r="F21">
-        <v>2.213543226015844</v>
+        <v>1.88104103401993</v>
       </c>
       <c r="G21">
-        <v>1.717399270529256</v>
+        <v>1.555608168107824</v>
       </c>
       <c r="H21">
-        <v>0.01037517653114092</v>
+        <v>0.008871305320433814</v>
       </c>
       <c r="I21">
-        <v>0.010966769065897</v>
+        <v>0.009533957757892786</v>
       </c>
       <c r="J21">
-        <v>0.9680000874428458</v>
+        <v>0.6695235846025867</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3958780025668744</v>
+        <v>0.2218845764456177</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1987216487834189</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3827740276403091</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6166707479085112</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6754955133616747</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.477414676919068</v>
+        <v>4.89529246910547</v>
       </c>
       <c r="C22">
-        <v>1.473607690016024</v>
+        <v>1.603193216298166</v>
       </c>
       <c r="D22">
-        <v>0.2042288827823313</v>
+        <v>0.2469261866714447</v>
       </c>
       <c r="E22">
-        <v>0.2866125061762617</v>
+        <v>0.2973424410902936</v>
       </c>
       <c r="F22">
-        <v>2.350473497062936</v>
+        <v>1.95051524341693</v>
       </c>
       <c r="G22">
-        <v>1.831102495177589</v>
+        <v>1.723955255232624</v>
       </c>
       <c r="H22">
-        <v>0.01376627220717863</v>
+        <v>0.01161506946248178</v>
       </c>
       <c r="I22">
-        <v>0.01391340092931337</v>
+        <v>0.01151619312868135</v>
       </c>
       <c r="J22">
-        <v>1.018283131975295</v>
+        <v>0.5902881947208698</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4238485354854333</v>
+        <v>0.216919736343602</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2094520754475795</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4076764796157306</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5929620183717361</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6679775327432083</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.279314410862469</v>
+        <v>4.751081046560671</v>
       </c>
       <c r="C23">
-        <v>1.417210783004975</v>
+        <v>1.555214593488756</v>
       </c>
       <c r="D23">
-        <v>0.1970885980898061</v>
+        <v>0.2350092793787297</v>
       </c>
       <c r="E23">
-        <v>0.2766170295414199</v>
+        <v>0.2862359006408042</v>
       </c>
       <c r="F23">
-        <v>2.282286706252833</v>
+        <v>1.924441413699711</v>
       </c>
       <c r="G23">
-        <v>1.775430270012436</v>
+        <v>1.626429383359749</v>
       </c>
       <c r="H23">
-        <v>0.01191937498374929</v>
+        <v>0.01014250367989251</v>
       </c>
       <c r="I23">
-        <v>0.01204505381573995</v>
+        <v>0.01013394989611793</v>
       </c>
       <c r="J23">
-        <v>0.9939586862336967</v>
+        <v>0.6515292189099142</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4090719444001962</v>
+        <v>0.2213120442100305</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2057870115495817</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3947681208876901</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6050565375868189</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6692604266511566</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.518660512381302</v>
+        <v>4.150376717214158</v>
       </c>
       <c r="C24">
-        <v>1.211233348617043</v>
+        <v>1.358522680566978</v>
       </c>
       <c r="D24">
-        <v>0.1710910524275278</v>
+        <v>0.196076646085686</v>
       </c>
       <c r="E24">
-        <v>0.2393132369807915</v>
+        <v>0.2460702427180621</v>
       </c>
       <c r="F24">
-        <v>2.019731105532173</v>
+        <v>1.781779407376249</v>
       </c>
       <c r="G24">
-        <v>1.559817251540693</v>
+        <v>1.328267299880707</v>
       </c>
       <c r="H24">
-        <v>0.006029265263477801</v>
+        <v>0.005310759668939236</v>
       </c>
       <c r="I24">
-        <v>0.006475450206630207</v>
+        <v>0.006001368083853542</v>
       </c>
       <c r="J24">
-        <v>0.8995120324737513</v>
+        <v>0.7966455416970462</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.353292871439109</v>
+        <v>0.232022013480023</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1851952334481268</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3445411714303361</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6532115947662973</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6874454371175034</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.702393722653824</v>
+        <v>3.423547491071474</v>
       </c>
       <c r="C25">
-        <v>0.9923713189065211</v>
+        <v>1.108238777908866</v>
       </c>
       <c r="D25">
-        <v>0.1434197233102736</v>
+        <v>0.1631948460296684</v>
       </c>
       <c r="E25">
-        <v>0.1995889421794246</v>
+        <v>0.2055407563041172</v>
       </c>
       <c r="F25">
-        <v>1.743789435493213</v>
+        <v>1.559039951975038</v>
       </c>
       <c r="G25">
-        <v>1.3339953388911</v>
+        <v>1.139240336558686</v>
       </c>
       <c r="H25">
-        <v>0.001800324579696255</v>
+        <v>0.001637631963180342</v>
       </c>
       <c r="I25">
-        <v>0.002597113673366458</v>
+        <v>0.002826545619256216</v>
       </c>
       <c r="J25">
-        <v>0.8012141911438846</v>
+        <v>0.7363194878247867</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2938883275755586</v>
+        <v>0.2335846798060679</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1547688696586178</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2882193936751207</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7081041403125852</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7239442883018512</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
